--- a/xl/currency_converter.xlsx
+++ b/xl/currency_converter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11230"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fz/Dev/python-for-excel/material/ch01/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fz/Dev/python-for-excel/material/xl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B99255-ACA5-5747-91A6-4B83E1A3BA0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF64286D-BC1E-3F4A-866A-E741EB52B936}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3800" yWindow="-21140" windowWidth="34720" windowHeight="21140" xr2:uid="{660F40C0-90FC-9D4C-A839-7F11078FA6F9}"/>
   </bookViews>
@@ -71,16 +71,19 @@
     <t>CNY</t>
   </si>
   <si>
-    <t>Exchange rates (in USD)</t>
-  </si>
-  <si>
     <t>Currency converter</t>
+  </si>
+  <si>
+    <t>Exchange rate vs USD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -141,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -160,6 +163,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,14 +483,14 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -499,7 +505,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -511,70 +517,70 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4">
-        <f>VLOOKUP(B4,F4:G11,2,FALSE) * A4</f>
-        <v>111.51019370435749</v>
+        <f>A4 * VLOOKUP(B4,F4:G11,2,FALSE)</f>
+        <v>111.50999999999999</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
       </c>
-      <c r="G4">
-        <v>1.1151019370435749</v>
+      <c r="G4" s="8">
+        <v>1.1151</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F5" t="s">
         <v>4</v>
       </c>
-      <c r="G5">
-        <v>1.2454742579153002</v>
+      <c r="G5" s="8">
+        <v>1.2454000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F6" t="s">
         <v>5</v>
       </c>
-      <c r="G6">
-        <v>0.61617369690046142</v>
+      <c r="G6" s="8">
+        <v>0.61609999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F7" t="s">
         <v>6</v>
       </c>
-      <c r="G7">
-        <v>0.71405568634675554</v>
+      <c r="G7" s="8">
+        <v>0.71399999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F8" t="s">
         <v>7</v>
       </c>
-      <c r="G8">
-        <v>0.70040224100701032</v>
+      <c r="G8" s="8">
+        <v>0.70040000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F9" t="s">
         <v>8</v>
       </c>
-      <c r="G9">
-        <v>1.0512516728042245</v>
+      <c r="G9" s="8">
+        <v>1.0511999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F10" t="s">
         <v>9</v>
       </c>
-      <c r="G10">
-        <v>9.2675529468506119E-3</v>
+      <c r="G10" s="8">
+        <v>9.1999999999999998E-3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F11" t="s">
         <v>10</v>
       </c>
-      <c r="G11">
-        <v>0.14094929349166638</v>
+      <c r="G11" s="8">
+        <v>0.1409</v>
       </c>
     </row>
   </sheetData>
